--- a/Selenium-Python/TestUtils/Users.xlsx
+++ b/Selenium-Python/TestUtils/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smabf/Novin-Kish-Project/Selenium-Python/TestUtils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69120E7F-7C38-6E4D-A3C3-5802F7B5993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761D44EF-5CE9-314F-8AAC-D48A50B8C445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16260" xr2:uid="{EFCDA9F9-37B4-A145-8D72-55C69C97B64E}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{EFCDA9F9-37B4-A145-8D72-55C69C97B64E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,19 +61,19 @@
     <t>kabol123</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>ess</t>
-  </si>
-  <si>
-    <t>disable</t>
-  </si>
-  <si>
     <t>Orange Test</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +456,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -465,15 +465,15 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
